--- a/cosmic_ray_scripts/snap2_control/cr_registers.xlsx
+++ b/cosmic_ray_scripts/snap2_control/cr_registers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4566bfd2e2f5f505/Documents/research/LWA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="14_{42B3502A-86A0-45ED-BFF9-DC592E8603F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F62F8D53-056E-4F8F-9F29-84F58FE29A3D}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="14_{42B3502A-86A0-45ED-BFF9-DC592E8603F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{722F53E2-942F-43FF-B8F1-71CC9A283609}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2355" windowWidth="16905" windowHeight="11040" xr2:uid="{028AD5E7-3E96-4DE2-B0D1-9553BB825CBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{028AD5E7-3E96-4DE2-B0D1-9553BB825CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
   <si>
     <t>bitwidth</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>cosmic_ray_wait_between_packets</t>
+  </si>
+  <si>
+    <t>brd_id</t>
+  </si>
+  <si>
+    <t>Number to identify each SNAP2 board</t>
   </si>
 </sst>
 </file>
@@ -691,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663B0E9B-1259-49B3-93EE-CE90EC2AA12E}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,10 +1289,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>79</v>
@@ -1301,35 +1307,35 @@
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1338,7 +1344,7 @@
         <v>56</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>32</v>
@@ -1347,21 +1353,21 @@
         <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>32</v>
@@ -1370,18 +1376,18 @@
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1393,18 +1399,18 @@
         <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1416,18 +1422,18 @@
         <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1439,18 +1445,18 @@
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1462,18 +1468,18 @@
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1485,18 +1491,18 @@
         <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1508,18 +1514,18 @@
         <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1531,29 +1537,52 @@
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
         <v>98</v>
       </c>
     </row>

--- a/cosmic_ray_scripts/snap2_control/cr_registers.xlsx
+++ b/cosmic_ray_scripts/snap2_control/cr_registers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4566bfd2e2f5f505/Documents/research/LWA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="14_{42B3502A-86A0-45ED-BFF9-DC592E8603F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{722F53E2-942F-43FF-B8F1-71CC9A283609}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{361C9EEE-8C57-47C1-9A4B-D88DE4A9EC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{028AD5E7-3E96-4DE2-B0D1-9553BB825CBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{028AD5E7-3E96-4DE2-B0D1-9553BB825CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>bitwidth</t>
   </si>
@@ -346,14 +346,31 @@
   </si>
   <si>
     <t>Number to identify each SNAP2 board</t>
+  </si>
+  <si>
+    <t>internal_trigger_count</t>
+  </si>
+  <si>
+    <t>cosmic_ray_internal_trigger_count</t>
+  </si>
+  <si>
+    <t>Counts the number of triggers output by the coincidence_trigger block. These are the internally generated triggers that made it past the veto.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -381,8 +398,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663B0E9B-1259-49B3-93EE-CE90EC2AA12E}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,26 +730,26 @@
     <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1586,7 +1604,31 @@
         <v>98</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>